--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Tnfsf12-Cd163.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Tnfsf12-Cd163.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.70197894978549</v>
+        <v>5.742066</v>
       </c>
       <c r="H2">
-        <v>5.70197894978549</v>
+        <v>17.226198</v>
       </c>
       <c r="I2">
-        <v>0.2577808781920138</v>
+        <v>0.2447097919555983</v>
       </c>
       <c r="J2">
-        <v>0.2577808781920138</v>
+        <v>0.2447097919555983</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>3.30139173747715</v>
+        <v>0.6022393333333333</v>
       </c>
       <c r="N2">
-        <v>3.30139173747715</v>
+        <v>1.806718</v>
       </c>
       <c r="O2">
-        <v>0.7861865483466882</v>
+        <v>0.1247313749130817</v>
       </c>
       <c r="P2">
-        <v>0.7861865483466882</v>
+        <v>0.1247313749130817</v>
       </c>
       <c r="Q2">
-        <v>18.82446619209045</v>
+        <v>3.458097999796</v>
       </c>
       <c r="R2">
-        <v>18.82446619209045</v>
+        <v>31.122881998164</v>
       </c>
       <c r="S2">
-        <v>0.2026638588555574</v>
+        <v>0.03052298880531596</v>
       </c>
       <c r="T2">
-        <v>0.2026638588555574</v>
+        <v>0.03052298880531597</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.70197894978549</v>
+        <v>5.742066</v>
       </c>
       <c r="H3">
-        <v>5.70197894978549</v>
+        <v>17.226198</v>
       </c>
       <c r="I3">
-        <v>0.2577808781920138</v>
+        <v>0.2447097919555983</v>
       </c>
       <c r="J3">
-        <v>0.2577808781920138</v>
+        <v>0.2447097919555983</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.897855558752752</v>
+        <v>3.324840666666667</v>
       </c>
       <c r="N3">
-        <v>0.897855558752752</v>
+        <v>9.974522</v>
       </c>
       <c r="O3">
-        <v>0.2138134516533117</v>
+        <v>0.6886165096936998</v>
       </c>
       <c r="P3">
-        <v>0.2138134516533117</v>
+        <v>0.6886165096936998</v>
       </c>
       <c r="Q3">
-        <v>5.119553495956081</v>
+        <v>19.091454547484</v>
       </c>
       <c r="R3">
-        <v>5.119553495956081</v>
+        <v>171.823090927356</v>
       </c>
       <c r="S3">
-        <v>0.05511701933645637</v>
+        <v>0.1685112028243355</v>
       </c>
       <c r="T3">
-        <v>0.05511701933645637</v>
+        <v>0.1685112028243355</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,55 +652,55 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.79774514281899</v>
+        <v>5.742066</v>
       </c>
       <c r="H4">
-        <v>6.79774514281899</v>
+        <v>17.226198</v>
       </c>
       <c r="I4">
-        <v>0.3073193935076345</v>
+        <v>0.2447097919555983</v>
       </c>
       <c r="J4">
-        <v>0.3073193935076345</v>
+        <v>0.2447097919555983</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.30139173747715</v>
+        <v>0.9012106666666666</v>
       </c>
       <c r="N4">
-        <v>3.30139173747715</v>
+        <v>2.703632</v>
       </c>
       <c r="O4">
-        <v>0.7861865483466882</v>
+        <v>0.1866521153932185</v>
       </c>
       <c r="P4">
-        <v>0.7861865483466882</v>
+        <v>0.1866521153932185</v>
       </c>
       <c r="Q4">
-        <v>22.44201964797805</v>
+        <v>5.174811127904</v>
       </c>
       <c r="R4">
-        <v>22.44201964797805</v>
+        <v>46.573300151136</v>
       </c>
       <c r="S4">
-        <v>0.2416103732217648</v>
+        <v>0.04567560032594683</v>
       </c>
       <c r="T4">
-        <v>0.2416103732217648</v>
+        <v>0.04567560032594684</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,60 +714,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.79774514281899</v>
+        <v>6.924657666666666</v>
       </c>
       <c r="H5">
-        <v>6.79774514281899</v>
+        <v>20.773973</v>
       </c>
       <c r="I5">
-        <v>0.3073193935076345</v>
+        <v>0.2951083350441702</v>
       </c>
       <c r="J5">
-        <v>0.3073193935076345</v>
+        <v>0.2951083350441703</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.897855558752752</v>
+        <v>0.6022393333333333</v>
       </c>
       <c r="N5">
-        <v>0.897855558752752</v>
+        <v>1.806718</v>
       </c>
       <c r="O5">
-        <v>0.2138134516533117</v>
+        <v>0.1247313749130817</v>
       </c>
       <c r="P5">
-        <v>0.2138134516533117</v>
+        <v>0.1247313749130817</v>
       </c>
       <c r="Q5">
-        <v>6.10339326346455</v>
+        <v>4.170301216734888</v>
       </c>
       <c r="R5">
-        <v>6.10339326346455</v>
+        <v>37.532710950614</v>
       </c>
       <c r="S5">
-        <v>0.06570902028586967</v>
+        <v>0.03680926837836973</v>
       </c>
       <c r="T5">
-        <v>0.06570902028586967</v>
+        <v>0.03680926837836975</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -779,57 +779,57 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.50694982909322</v>
+        <v>6.924657666666666</v>
       </c>
       <c r="H6">
-        <v>7.50694982909322</v>
+        <v>20.773973</v>
       </c>
       <c r="I6">
-        <v>0.3393818420813074</v>
+        <v>0.2951083350441702</v>
       </c>
       <c r="J6">
-        <v>0.3393818420813074</v>
+        <v>0.2951083350441703</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.30139173747715</v>
+        <v>3.324840666666667</v>
       </c>
       <c r="N6">
-        <v>3.30139173747715</v>
+        <v>9.974522</v>
       </c>
       <c r="O6">
-        <v>0.7861865483466882</v>
+        <v>0.6886165096936998</v>
       </c>
       <c r="P6">
-        <v>0.7861865483466882</v>
+        <v>0.6886165096936998</v>
       </c>
       <c r="Q6">
-        <v>24.78338213942386</v>
+        <v>23.02338341287844</v>
       </c>
       <c r="R6">
-        <v>24.78338213942386</v>
+        <v>207.210450715906</v>
       </c>
       <c r="S6">
-        <v>0.2668174389974439</v>
+        <v>0.2032164716596355</v>
       </c>
       <c r="T6">
-        <v>0.2668174389974439</v>
+        <v>0.2032164716596355</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -841,57 +841,57 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.50694982909322</v>
+        <v>6.924657666666666</v>
       </c>
       <c r="H7">
-        <v>7.50694982909322</v>
+        <v>20.773973</v>
       </c>
       <c r="I7">
-        <v>0.3393818420813074</v>
+        <v>0.2951083350441702</v>
       </c>
       <c r="J7">
-        <v>0.3393818420813074</v>
+        <v>0.2951083350441703</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.897855558752752</v>
+        <v>0.9012106666666666</v>
       </c>
       <c r="N7">
-        <v>0.897855558752752</v>
+        <v>2.703632</v>
       </c>
       <c r="O7">
-        <v>0.2138134516533117</v>
+        <v>0.1866521153932185</v>
       </c>
       <c r="P7">
-        <v>0.2138134516533117</v>
+        <v>0.1866521153932185</v>
       </c>
       <c r="Q7">
-        <v>6.74015663332937</v>
+        <v>6.24057535221511</v>
       </c>
       <c r="R7">
-        <v>6.74015663332937</v>
+        <v>56.16517816993599</v>
       </c>
       <c r="S7">
-        <v>0.07256440308386347</v>
+        <v>0.05508259500616505</v>
       </c>
       <c r="T7">
-        <v>0.07256440308386347</v>
+        <v>0.05508259500616507</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.11280596283526</v>
+        <v>8.617968666666666</v>
       </c>
       <c r="H8">
-        <v>2.11280596283526</v>
+        <v>25.853906</v>
       </c>
       <c r="I8">
-        <v>0.09551788621904436</v>
+        <v>0.3672722186578602</v>
       </c>
       <c r="J8">
-        <v>0.09551788621904436</v>
+        <v>0.3672722186578602</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>3.30139173747715</v>
+        <v>0.6022393333333333</v>
       </c>
       <c r="N8">
-        <v>3.30139173747715</v>
+        <v>1.806718</v>
       </c>
       <c r="O8">
-        <v>0.7861865483466882</v>
+        <v>0.1247313749130817</v>
       </c>
       <c r="P8">
-        <v>0.7861865483466882</v>
+        <v>0.1247313749130817</v>
       </c>
       <c r="Q8">
-        <v>6.975200148596781</v>
+        <v>5.190079704500889</v>
       </c>
       <c r="R8">
-        <v>6.975200148596781</v>
+        <v>46.710717340508</v>
       </c>
       <c r="S8">
-        <v>0.07509487727192218</v>
+        <v>0.04581036880057289</v>
       </c>
       <c r="T8">
-        <v>0.07509487727192218</v>
+        <v>0.0458103688005729</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,303 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>8.617968666666666</v>
+      </c>
+      <c r="H9">
+        <v>25.853906</v>
+      </c>
+      <c r="I9">
+        <v>0.3672722186578602</v>
+      </c>
+      <c r="J9">
+        <v>0.3672722186578602</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3.324840666666667</v>
+      </c>
+      <c r="N9">
+        <v>9.974522</v>
+      </c>
+      <c r="O9">
+        <v>0.6886165096936998</v>
+      </c>
+      <c r="P9">
+        <v>0.6886165096936998</v>
+      </c>
+      <c r="Q9">
+        <v>28.65337268699244</v>
+      </c>
+      <c r="R9">
+        <v>257.880354182932</v>
+      </c>
+      <c r="S9">
+        <v>0.252909713319637</v>
+      </c>
+      <c r="T9">
+        <v>0.2529097133196371</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>2.11280596283526</v>
-      </c>
-      <c r="H9">
-        <v>2.11280596283526</v>
-      </c>
-      <c r="I9">
-        <v>0.09551788621904436</v>
-      </c>
-      <c r="J9">
-        <v>0.09551788621904436</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.897855558752752</v>
-      </c>
-      <c r="N9">
-        <v>0.897855558752752</v>
-      </c>
-      <c r="O9">
-        <v>0.2138134516533117</v>
-      </c>
-      <c r="P9">
-        <v>0.2138134516533117</v>
-      </c>
-      <c r="Q9">
-        <v>1.896994578297598</v>
-      </c>
-      <c r="R9">
-        <v>1.896994578297598</v>
-      </c>
-      <c r="S9">
-        <v>0.02042300894712217</v>
-      </c>
-      <c r="T9">
-        <v>0.02042300894712217</v>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>8.617968666666666</v>
+      </c>
+      <c r="H10">
+        <v>25.853906</v>
+      </c>
+      <c r="I10">
+        <v>0.3672722186578602</v>
+      </c>
+      <c r="J10">
+        <v>0.3672722186578602</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.9012106666666666</v>
+      </c>
+      <c r="N10">
+        <v>2.703632</v>
+      </c>
+      <c r="O10">
+        <v>0.1866521153932185</v>
+      </c>
+      <c r="P10">
+        <v>0.1866521153932185</v>
+      </c>
+      <c r="Q10">
+        <v>7.76660528739911</v>
+      </c>
+      <c r="R10">
+        <v>69.89944758659199</v>
+      </c>
+      <c r="S10">
+        <v>0.0685521365376503</v>
+      </c>
+      <c r="T10">
+        <v>0.06855213653765031</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.180106333333333</v>
+      </c>
+      <c r="H11">
+        <v>6.540318999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.09290965434237122</v>
+      </c>
+      <c r="J11">
+        <v>0.09290965434237124</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.6022393333333333</v>
+      </c>
+      <c r="N11">
+        <v>1.806718</v>
+      </c>
+      <c r="O11">
+        <v>0.1247313749130817</v>
+      </c>
+      <c r="P11">
+        <v>0.1247313749130817</v>
+      </c>
+      <c r="Q11">
+        <v>1.312945784782444</v>
+      </c>
+      <c r="R11">
+        <v>11.816512063042</v>
+      </c>
+      <c r="S11">
+        <v>0.01158874892882314</v>
+      </c>
+      <c r="T11">
+        <v>0.01158874892882314</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.180106333333333</v>
+      </c>
+      <c r="H12">
+        <v>6.540318999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.09290965434237122</v>
+      </c>
+      <c r="J12">
+        <v>0.09290965434237124</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3.324840666666667</v>
+      </c>
+      <c r="N12">
+        <v>9.974522</v>
+      </c>
+      <c r="O12">
+        <v>0.6886165096936998</v>
+      </c>
+      <c r="P12">
+        <v>0.6886165096936998</v>
+      </c>
+      <c r="Q12">
+        <v>7.248506194724222</v>
+      </c>
+      <c r="R12">
+        <v>65.236555752518</v>
+      </c>
+      <c r="S12">
+        <v>0.06397912189009178</v>
+      </c>
+      <c r="T12">
+        <v>0.06397912189009178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.180106333333333</v>
+      </c>
+      <c r="H13">
+        <v>6.540318999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.09290965434237122</v>
+      </c>
+      <c r="J13">
+        <v>0.09290965434237124</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.9012106666666666</v>
+      </c>
+      <c r="N13">
+        <v>2.703632</v>
+      </c>
+      <c r="O13">
+        <v>0.1866521153932185</v>
+      </c>
+      <c r="P13">
+        <v>0.1866521153932185</v>
+      </c>
+      <c r="Q13">
+        <v>1.964735082067555</v>
+      </c>
+      <c r="R13">
+        <v>17.682615738608</v>
+      </c>
+      <c r="S13">
+        <v>0.01734178352345632</v>
+      </c>
+      <c r="T13">
+        <v>0.01734178352345632</v>
       </c>
     </row>
   </sheetData>
